--- a/Excel/ShopConfig.xlsx
+++ b/Excel/ShopConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,11 +84,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金币袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金石 x 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天表情包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩药瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpleStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDiamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDiamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipSe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipMo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipJi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买获得10000金币;VIP折扣价8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买获得330000金币;VIP折扣价240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买获得575000金币;VIP折扣价400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买获得1150000金币;VIP折扣价800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛道具用于报名参顶级比赛;VIP折扣价800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后可在房间使用特殊表情;VIP折扣价96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭喊话全服可见;VIP折扣价8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛道具用于报名参加低级比赛;VIP折扣价48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛道具用于报名参高级比赛;VIP折扣价96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在比赛中使用后,恢复5000生命值;VIP折扣价8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>500元宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wing3</t>
+    <t>500元宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,131 +260,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wing4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小金币袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买获得10000金币;VIP折扣价8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买获得330000金币;VIP折扣价240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币罐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买获得575000金币;VIP折扣价400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买获得1150000金币;VIP折扣价800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫金石 x 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛道具，用于报名参顶级比赛;VIP折扣价800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天表情包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后可在房间使用特殊表情;VIP折扣价96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喇叭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喇叭喊话，全服可见;VIP折扣价8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压缩药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在比赛中使用后恢复5000生命值;VIP折扣价8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛道具，用于报名参加低级比赛;VIP折扣价48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛道具，用于报名参高级比赛;VIP折扣价96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expression</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purpleStone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDiamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDiamond</t>
+    <t>1180元宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,7 +268,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vipSe</t>
+    <t>vip7天体验卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -236,7 +276,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vipMo</t>
+    <t>vip月卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,23 +284,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vipJi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
+    <t>vip季卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +666,7 @@
   <dimension ref="C3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -686,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -712,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -729,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3">
         <v>6</v>
@@ -749,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="3">
         <v>30</v>
@@ -766,16 +790,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3">
         <v>50</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -786,16 +810,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G9" s="3">
         <v>118</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -806,16 +830,16 @@
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -826,16 +850,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G11" s="3">
         <v>300</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -846,16 +870,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
@@ -866,16 +890,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3">
         <v>1000</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
@@ -886,16 +910,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3">
         <v>1000</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
@@ -906,16 +930,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G15" s="3">
         <v>120</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
@@ -926,16 +950,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G16" s="3">
         <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
@@ -946,16 +970,16 @@
         <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3">
         <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
@@ -966,16 +990,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G18" s="3">
         <v>60</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
@@ -986,16 +1010,16 @@
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G19" s="3">
         <v>120</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
@@ -1006,16 +1030,16 @@
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G20" s="3">
         <v>70</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
@@ -1026,16 +1050,16 @@
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G21" s="3">
         <v>300</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
@@ -1046,16 +1070,16 @@
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G22" s="3">
         <v>800</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ShopConfig.xlsx
+++ b/Excel/ShopConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,11 +56,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
+    <t>300元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小金币袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金石 x 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30天表情包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩药瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买获得10000金币;VIP折扣价8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买获得330000金币;VIP折扣价240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买获得575000金币;VIP折扣价400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买获得1150000金币;VIP折扣价800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1180元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1180元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip7天体验卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip7天体验卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip月卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip季卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在比赛中使用后,恢复5000生命值;VIP折扣价8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛道具用于报名参加低级比赛;VIP折扣价48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛道具用于报名参高级比赛;VIP折扣价96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛道具用于报名参顶级比赛;VIP折扣价800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后可在房间使用特殊表情;VIP折扣价96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭喊话全服可见;VIP折扣价8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip季卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip月卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:330000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:575000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1150000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -68,223 +292,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wing4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小金币袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币罐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫金石 x 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30天表情包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喇叭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压缩药瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bottle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expression</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>purpleStone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDiamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDiamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipSe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipMo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipJi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买获得10000金币;VIP折扣价8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买获得330000金币;VIP折扣价240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买获得575000金币;VIP折扣价400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买获得1150000金币;VIP折扣价800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛道具用于报名参顶级比赛;VIP折扣价800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后可在房间使用特殊表情;VIP折扣价96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喇叭喊话全服可见;VIP折扣价8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛道具用于报名参加低级比赛;VIP折扣价48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛道具用于报名参高级比赛;VIP折扣价96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在比赛中使用后,恢复5000生命值;VIP折扣价8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1180元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1180元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip7天体验卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip7天体验卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip月卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip月卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip季卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip季卡</t>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -358,6 +370,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H22"/>
+  <dimension ref="C3:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -674,15 +689,16 @@
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -696,13 +712,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,19 +729,22 @@
         <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -736,350 +758,404 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="3">
+        <v>26</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
         <v>6</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
         <v>30</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
         <v>50</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
-        <v>4</v>
+        <v>1004</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
         <v>118</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
-        <v>5</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
         <v>10</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
-        <v>6</v>
+        <v>1006</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
         <v>300</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
-        <v>7</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="3">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>1000</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
         <v>120</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
-        <v>11</v>
+        <v>1011</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>10</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
-        <v>12</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
         <v>10</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
-        <v>13</v>
+        <v>1013</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3">
         <v>60</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
-        <v>14</v>
+        <v>1014</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
         <v>120</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
-        <v>15</v>
+        <v>1015</v>
       </c>
       <c r="D20" s="3">
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
+        <v>70</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="3">
-        <v>70</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
-        <v>16</v>
+        <v>1016</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
-        <v>17</v>
+        <v>1017</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>42</v>
+      <c r="I22" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ShopConfig.xlsx
+++ b/Excel/ShopConfig.xlsx
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2_1180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,31 +268,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>物品集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>109:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyType</t>
+    <t>2:1180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +681,7 @@
   <dimension ref="C3:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.3">
@@ -758,13 +758,13 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -856,7 +856,7 @@
         <v>118</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
@@ -879,7 +879,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
@@ -902,7 +902,7 @@
         <v>300</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>500</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
@@ -948,7 +948,7 @@
         <v>1000</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
@@ -971,7 +971,7 @@
         <v>1000</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.3">
@@ -1017,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
@@ -1040,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
@@ -1063,7 +1063,7 @@
         <v>60</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
         <v>120</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
@@ -1109,7 +1109,7 @@
         <v>70</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
@@ -1132,7 +1132,7 @@
         <v>300</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>800</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ShopConfig.xlsx
+++ b/Excel/ShopConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,35 +120,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>300元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1180元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1180元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip7天体验卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip7天体验卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip月卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip季卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>60元宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1180元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1180元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip7天体验卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip7天体验卡</t>
+    <t>在比赛中使用后,恢复5000生命值;VIP折扣价8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛道具用于报名参加低级比赛;VIP折扣价48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛道具用于报名参高级比赛;VIP折扣价96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛道具用于报名参顶级比赛;VIP折扣价800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后可在房间使用特殊表情;VIP折扣价96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭喊话全服可见;VIP折扣价8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip季卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,7 +204,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vip季卡</t>
+    <t>2:60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:330000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:575000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1150000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>107:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:1180</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,119 +300,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在比赛中使用后,恢复5000生命值;VIP折扣价8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛道具用于报名参加低级比赛;VIP折扣价48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛道具用于报名参高级比赛;VIP折扣价96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛道具用于报名参顶级比赛;VIP折扣价800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后可在房间使用特殊表情;VIP折扣价96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喇叭喊话全服可见;VIP折扣价8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿钻石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip季卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip月卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:330000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:575000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1150000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>物品图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -284,19 +312,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:1180</t>
+    <t>item2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item4_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -373,6 +409,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I22"/>
+  <dimension ref="C3:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -698,7 +737,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -712,16 +751,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,16 +777,19 @@
         <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -758,16 +803,19 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>1001</v>
       </c>
@@ -775,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -787,10 +835,13 @@
         <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>1002</v>
       </c>
@@ -801,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -810,10 +861,13 @@
         <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1003</v>
       </c>
@@ -821,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -833,10 +887,13 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>1004</v>
       </c>
@@ -844,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -856,10 +913,13 @@
         <v>118</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>1005</v>
       </c>
@@ -879,10 +939,13 @@
         <v>10</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>1006</v>
       </c>
@@ -902,10 +965,13 @@
         <v>300</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>1007</v>
       </c>
@@ -925,10 +991,13 @@
         <v>500</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>1008</v>
       </c>
@@ -948,10 +1017,13 @@
         <v>1000</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>1009</v>
       </c>
@@ -962,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
@@ -971,10 +1043,13 @@
         <v>1000</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="J14" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>1010</v>
       </c>
@@ -985,7 +1060,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -994,10 +1069,13 @@
         <v>120</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="J15" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>1011</v>
       </c>
@@ -1008,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
@@ -1017,10 +1095,13 @@
         <v>10</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="J16" s="6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>1012</v>
       </c>
@@ -1031,7 +1112,7 @@
         <v>18</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -1040,10 +1121,13 @@
         <v>10</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="J17" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>1013</v>
       </c>
@@ -1051,10 +1135,10 @@
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -1063,10 +1147,13 @@
         <v>60</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="J18" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>1014</v>
       </c>
@@ -1074,10 +1161,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -1086,10 +1173,13 @@
         <v>120</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="J19" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>1015</v>
       </c>
@@ -1097,10 +1187,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
@@ -1109,10 +1199,13 @@
         <v>70</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="J20" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>1016</v>
       </c>
@@ -1120,10 +1213,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="3">
         <v>2</v>
@@ -1132,10 +1225,13 @@
         <v>300</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="J21" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>1017</v>
       </c>
@@ -1143,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
@@ -1155,7 +1251,10 @@
         <v>800</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="J22" s="6">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ShopConfig.xlsx
+++ b/Excel/ShopConfig.xlsx
@@ -204,135 +204,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2:500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:330000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:575000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1150000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101:100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrencyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:1180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2:60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>107:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2:300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:330000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:575000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:1150000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101:100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>104:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>106:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>102:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>108:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurrencyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:1180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item3_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item4_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item4_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,7 +720,7 @@
   <dimension ref="C3:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -751,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
@@ -777,16 +777,16 @@
         <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
@@ -803,16 +803,16 @@
         <v>2</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="3:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -826,7 +826,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="J6" s="3">
         <v>2</v>
@@ -861,10 +861,10 @@
         <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
@@ -887,10 +887,10 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
@@ -913,10 +913,10 @@
         <v>118</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J10" s="6">
         <v>1</v>
@@ -965,10 +965,10 @@
         <v>300</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
@@ -991,10 +991,10 @@
         <v>500</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
@@ -1017,10 +1017,10 @@
         <v>1000</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
@@ -1043,7 +1043,7 @@
         <v>1000</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J14" s="6">
         <v>101</v>
@@ -1069,7 +1069,7 @@
         <v>120</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="J15" s="6">
         <v>104</v>
@@ -1095,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J16" s="6">
         <v>105</v>
@@ -1121,7 +1121,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J17" s="6">
         <v>106</v>
@@ -1147,7 +1147,7 @@
         <v>60</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J18" s="6">
         <v>103</v>
@@ -1173,7 +1173,7 @@
         <v>120</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J19" s="6">
         <v>102</v>
@@ -1199,7 +1199,7 @@
         <v>70</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J20" s="6">
         <v>107</v>
@@ -1225,7 +1225,7 @@
         <v>300</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J21" s="6">
         <v>108</v>
@@ -1251,7 +1251,7 @@
         <v>800</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J22" s="6">
         <v>109</v>

--- a/Excel/ShopConfig.xlsx
+++ b/Excel/ShopConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,18 @@
   </si>
   <si>
     <t>2:300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VipPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J22"/>
+  <dimension ref="C3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -737,7 +749,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -762,8 +774,11 @@
       <c r="J3" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -788,8 +803,11 @@
       <c r="J4" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -814,8 +832,11 @@
       <c r="J5" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>1001</v>
       </c>
@@ -840,8 +861,11 @@
       <c r="J6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>1002</v>
       </c>
@@ -866,8 +890,11 @@
       <c r="J7" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1003</v>
       </c>
@@ -892,8 +919,11 @@
       <c r="J8" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>1004</v>
       </c>
@@ -918,8 +948,11 @@
       <c r="J9" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>1005</v>
       </c>
@@ -944,8 +977,11 @@
       <c r="J10" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>1006</v>
       </c>
@@ -970,8 +1006,11 @@
       <c r="J11" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>1007</v>
       </c>
@@ -996,8 +1035,11 @@
       <c r="J12" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>1008</v>
       </c>
@@ -1022,8 +1064,11 @@
       <c r="J13" s="6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>1009</v>
       </c>
@@ -1048,8 +1093,11 @@
       <c r="J14" s="6">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>1010</v>
       </c>
@@ -1074,8 +1122,11 @@
       <c r="J15" s="6">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>1011</v>
       </c>
@@ -1100,8 +1151,11 @@
       <c r="J16" s="6">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>1012</v>
       </c>
@@ -1126,8 +1180,11 @@
       <c r="J17" s="6">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>1013</v>
       </c>
@@ -1152,8 +1209,11 @@
       <c r="J18" s="6">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>1014</v>
       </c>
@@ -1178,8 +1238,11 @@
       <c r="J19" s="6">
         <v>102</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>1015</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="J20" s="6">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>1016</v>
       </c>
@@ -1230,8 +1296,11 @@
       <c r="J21" s="6">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>1017</v>
       </c>
@@ -1255,6 +1324,9 @@
       </c>
       <c r="J22" s="6">
         <v>109</v>
+      </c>
+      <c r="K22" s="6">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
